--- a/public/[Template]-Data-Perusahaan.xlsx
+++ b/public/[Template]-Data-Perusahaan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester_8\Skripji\Skripsi SIG\SIG Kampus Merdeka\Data\Data Clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB61D496-F91A-467A-A878-D0D852A445B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C78AEC-0340-4E49-8864-45A971C667E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="90" windowWidth="20445" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>logo</t>
   </si>
   <si>
@@ -49,19 +46,7 @@
     <t>lon</t>
   </si>
   <si>
-    <t>Kota Jakarta Selatan</t>
-  </si>
-  <si>
-    <t>Kota Surabaya</t>
-  </si>
-  <si>
-    <t>Kota Makassar</t>
-  </si>
-  <si>
     <t>Jl. Gunung Gandek No.35 Rt.26, Melayu, Tenggarong, Kutai Kartanegara, Kalimantan Timur  75512</t>
-  </si>
-  <si>
-    <t>Kabupaten Kutai Kartanegara</t>
   </si>
   <si>
     <t>-0.4206329386095656</t>
@@ -110,28 +95,43 @@
     <t>Brand 4</t>
   </si>
   <si>
+    <t>Brand 5</t>
+  </si>
+  <si>
+    <t>Company 5</t>
+  </si>
+  <si>
+    <t>Brand 6</t>
+  </si>
+  <si>
+    <t>Company 6</t>
+  </si>
+  <si>
+    <t>Brand 7</t>
+  </si>
+  <si>
+    <t>Company 7</t>
+  </si>
+  <si>
     <t>https://mtek3d.com/wp-content/uploads/2018/01/image-placeholder-500x500.jpg</t>
   </si>
   <si>
     <t>sector_id</t>
   </si>
   <si>
-    <t>Brand 1</t>
+    <t>geo_id</t>
   </si>
   <si>
-    <t>Company 1</t>
+    <t>ID6403</t>
   </si>
   <si>
-    <t>Brand 2</t>
+    <t>ID3578</t>
   </si>
   <si>
-    <t>Company 2</t>
+    <t>ID7371</t>
   </si>
   <si>
-    <t>Brand 3</t>
-  </si>
-  <si>
-    <t>Company 3</t>
+    <t>ID3171</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -259,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -512,19 +509,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -532,31 +529,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="14">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -564,31 +561,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="14">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -596,31 +593,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="14">
+        <v>29</v>
+      </c>
+      <c r="H4" s="13">
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="153" x14ac:dyDescent="0.2">
@@ -631,28 +628,28 @@
         <v>27</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="14">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
